--- a/html-css-js.xlsx
+++ b/html-css-js.xlsx
@@ -9,13 +9,15 @@
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="git" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="общая инфо" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>№п/п</t>
   </si>
@@ -32,26 +34,7 @@
     <t>&lt;a&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://google.com.ua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">" target="_blank"&gt;Google&lt;/a&gt;</t>
-    </r>
+    <t>&lt;a href="http://google.com.ua" target="_blank"&gt;Google&lt;/a&gt;</t>
   </si>
   <si>
     <t>target="_blank" — открытие изображения в новой вкладке</t>
@@ -60,7 +43,7 @@
     <t>&lt;img&gt;</t>
   </si>
   <si>
-    <t>&lt;img src="img/cat.jpg" title="это черный кот" height="300" alt="это кот"&gt;  </t>
+    <t>&lt;img src="img/cat.jpg" title="это черный кот" height="300" alt="это кот"&gt;</t>
   </si>
   <si>
     <t>height — автоматически сужает размер картинки по высоте и ширине, 
@@ -102,7 +85,7 @@
     <t>Пронумерованный список</t>
   </si>
   <si>
-    <t>   &lt;ol start="4"&gt;
+    <t>&lt;ol start="4"&gt;
     &lt;li&gt; лист 1&lt;/li&gt;
     &lt;li&gt; лист 2&lt;/li&gt;
     &lt;li&gt; лист 3&lt;/li&gt;
@@ -132,8 +115,8 @@
     <t>&lt;form&gt;</t>
   </si>
   <si>
-    <t>	&lt;form action=""&gt;
-		&lt;input type="text" name="feedback" id=""&gt;
+    <t>&lt;form action=""&gt;
+		&lt;input type="text" name="feedback" id="" required&gt;
 		&lt;div&gt;&lt;input type="radio" name="age" id=""&gt;&lt;span&gt;до 10&lt;/span&gt;&lt;/div&gt;
 		&lt;div&gt;&lt;input type="radio" name="age" id=""&gt;&lt;span&gt;до 20&lt;/span&gt;&lt;/div&gt;
 		&lt;div&gt;&lt;input type="radio" name="age" id=""&gt;&lt;span&gt;до 30&lt;/span&gt;&lt;/div&gt;
@@ -147,7 +130,7 @@
 	&lt;/form&gt;</t>
   </si>
   <si>
-    <t>input type="text" — ввод текста
+    <t>input type="text" required — ввод текста(required значит, что текст обязателен)
 input type="radio" — позволяет выбрать только один вариант
 input type="checkbox"  - позволяет выбрать несколько вариантов
 input type="submit" — подтверждение отправки
@@ -163,11 +146,27 @@
     <t>&lt;script type="text/javascript"&gt;alert('Hello, Alex!')&lt;/script&gt;</t>
   </si>
   <si>
+    <t>header, footer, article</t>
+  </si>
+  <si>
+    <t>было до html5 &lt;div class=”header”&gt;&lt;/div&gt;
+Стало: &lt;header&gt;&lt;/header&gt;</t>
+  </si>
+  <si>
     <t>чтобы не запутаться в div</t>
   </si>
   <si>
     <t>&lt;div class="box"&gt;
 		&lt;/div&gt;&lt;!-- box – &gt;</t>
+  </si>
+  <si>
+    <t>contenteditable</t>
+  </si>
+  <si>
+    <t>&lt;div class="box" contenteditable=”true”&gt;</t>
+  </si>
+  <si>
+    <t>возможность онлайн редакции текста!!!!!!</t>
   </si>
   <si>
     <t>css на странице</t>
@@ -184,15 +183,16 @@
     <t>background</t>
   </si>
   <si>
-    <t>background-image: url('img/pattern.png');
+    <t>background-image: url('../img/pattern.png');
 	  		background-repeat: no-repeat;
 	  		background-color: black;
 	  		background-position: 10px 10px;
 	  		background-position: center;
-	  		background: black url('img/pattern.png') 20px 20px no-repeat;  </t>
-  </si>
-  <si>
-    <t>background-image: url('img/pattern.png') — добавить картинку
+	  		background: black url('img/pattern.png') 20px 20px no-repeat;</t>
+  </si>
+  <si>
+    <t>background-image: url('../img/pattern.png') — добавить картинку
+../ - означает поднятие в папку каталогом выше
 Background-repeat — по умолчанию картинка повторяется
 Внимание: все можно выписать в одну строчку</t>
   </si>
@@ -200,7 +200,7 @@
     <t>margin</t>
   </si>
   <si>
-    <t>	  		margin-top: 10px;
+    <t>margin-top: 10px;
 	  		margin-right: 20px;
 	  		margin-bottom: 30px;
 	  		margin-left: 40px;
@@ -225,7 +225,7 @@
     <t>border</t>
   </si>
   <si>
-    <t>	  		border: 10px solid black;
+    <t>border: 10px solid black;
 	  		border: 10px dashed black;
 	  		border-radius: 100%;
 	  		border-radius: 10px;</t>
@@ -249,7 +249,7 @@
     <t>font</t>
   </si>
   <si>
-    <t>				font-family: Arial; 
+    <t>font-family: Arial; 
 	  		font-weight: bold;
 	  		font-size: 10px;
 	  		line-height: 30px;
@@ -333,32 +333,14 @@
     <t>css- Селекторы</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) ul{color: red;}
+    <t>1) ul{color: red;}
 2) &lt;ul class="menu active"&gt;........&lt;/ul&gt;
 .menu{color: red;}
 .active{background: black;}
 3) &lt;ul id="unique"&gt;…............&lt;/ul&gt;
 #unique{color: red;}
 4) *{............}
-5) [type="text"] {color: blue;} или [href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://google.com.ua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"] {color: yellow;}
+5) [type="text"] {color: blue;} или [href="http://google.com.ua"] {color: yellow;}
 6) div p {….} или #box p {}
 7) &lt;ul class="menu"&gt;
     	&lt;li class="menu__item"&gt; 
@@ -376,7 +358,6 @@
 8) &lt;div&gt;&lt;p&gt;Lorem ipsum &lt;/p&gt;&lt;/div&gt;
 &lt;p&gt;bla-bla-bla&lt;/p&gt;
 div+p {background: green;;}</t>
-    </r>
   </si>
   <si>
     <t>1) Селектор элементов
@@ -388,8 +369,7 @@
 7) Дочерний селектор применение свойств для всех элементов &lt;a&gt;, кроме дочерних ( то есть только для &lt;a href=""&gt;пункт 1&lt;/a&gt;)
 (.menu .menu__item&gt;a)
 8) Сестринский селектор — дошло до «div»  иприменило свойство к первому после него «p», при этом на внутренний «р» никак не влияет
-Class="menu active" — можно подключать несколько классов
-</t>
+Class="menu active" — можно подключать несколько классов</t>
   </si>
   <si>
     <t>единицы измерения css</t>
@@ -397,6 +377,174 @@
   <si>
     <t>width: 748px;
 Width: 50%;</t>
+  </si>
+  <si>
+    <t>вес селекторов</t>
+  </si>
+  <si>
+    <t>селектор тега: 0 0 0 1
+Селектор класса и селектор аттрибута [type=”text”]: 0 0 1 0
+Селектор id: 0 1 0 0
+Непосредственно в элементе &lt;p ...style=”color: green;”..&gt;: 1 0 0 0
+p { color: blue !important} – перебьет все веса, но это плохая практика</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>git config –global user.email “...”</t>
+  </si>
+  <si>
+    <t>установка глобального email</t>
+  </si>
+  <si>
+    <t>git config –global user.name “...”</t>
+  </si>
+  <si>
+    <t>установка глобального пользователя</t>
+  </si>
+  <si>
+    <t>git config –global core.autocrlf input</t>
+  </si>
+  <si>
+    <t>может понадобиться для настроек linux</t>
+  </si>
+  <si>
+    <t>git config –global core.safecrlf true</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>история коммитов</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>git add “file_name”
+Git add .</t>
+  </si>
+  <si>
+    <t>добавить файл или все сразу</t>
+  </si>
+  <si>
+    <t>git commit -m “my message”
+git commit –amend
+git commit -am “my message”</t>
+  </si>
+  <si>
+    <t>коммит
+Присоединить к предыдущему коммиту
+Присоединить без предварительного add(работает только для ранее существоваших файлов)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">git@github.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:alexmirn/html1.git</t>
+    </r>
+  </si>
+  <si>
+    <t>склонировать существующий репозиторий себе на комп</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git pull </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/alexmirn/html_about.git</t>
+    </r>
+  </si>
+  <si>
+    <t>залить себе инфо с удаленной ветки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote add origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/alexmirn/html1.git</t>
+    </r>
+  </si>
+  <si>
+    <t>подключить удаленную ветку</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>отправить инфо (-u – для установки связи между ветками, писать обязательно при первом push)</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>узнать ветку</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>перейти в ветку master</t>
+  </si>
+  <si>
+    <t>git checkout -b “header”</t>
+  </si>
+  <si>
+    <t>создать ветку header</t>
+  </si>
+  <si>
+    <t>git merge header</t>
+  </si>
+  <si>
+    <t>будучи в ветке master слить инфо из ветки header</t>
+  </si>
+  <si>
+    <t>&lt;! Doctype html&gt;</t>
+  </si>
+  <si>
+    <t>означает, что используется html5</t>
   </si>
 </sst>
 </file>
@@ -411,6 +559,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,12 +581,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,7 +654,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,6 +664,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -536,6 +691,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -553,10 +712,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -582,21 +741,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -606,7 +765,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -646,7 +805,7 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -657,10 +816,10 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -668,7 +827,7 @@
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -686,7 +845,7 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -713,9 +872,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -724,415 +881,1110 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://google.com.ua"/>
-    <hyperlink ref="C26" r:id="rId2" display="http://google.com.ua"/>
+    <hyperlink ref="C2" r:id="rId1" display="&lt;a href=&quot;http://google.com.ua&quot; target=&quot;_blank&quot;&gt;Google&lt;/a&gt;"/>
+    <hyperlink ref="C27" r:id="rId2" display="1) ul{color: red;}&#10;2) &lt;ul class=&quot;menu active&quot;&gt;........&lt;/ul&gt;&#10;.menu{color: red;}&#10;.active{background: black;}&#10;3) &lt;ul id=&quot;unique&quot;&gt;…............&lt;/ul&gt;&#10;#unique{color: red;}&#10;4) *{............}&#10;5) [type=&quot;text&quot;] {color: blue;} или [href=&quot;http://google.com.ua&quot;] {color: yellow;}&#10;6) div p {….} или #box p {}&#10;7) &lt;ul class=&quot;menu&quot;&gt;&#10;     &lt;li class=&quot;menu__item&quot;&gt; &#10;    &lt;a href=&quot;&quot;&gt;пункт 1&lt;/a&gt;&#10;    &lt;ul&gt;&#10;       &lt;li&gt;&lt;a href=&quot;&quot;&gt;Подпункт 1&lt;/a&gt;&lt;/li&gt;&#10;       &lt;li&gt;&lt;a href=&quot;&quot;&gt;Подпункт 2&lt;/a&gt;&lt;/li&gt;&#10;      &lt;/ul&gt;&#10;     &lt;/li&gt;&#10;     &lt;li class=&quot;menu__item&quot;&gt;&lt;a href=&quot;&quot;&gt;Пункт 2&lt;/a&gt;&lt;/li&gt;&#10;    &lt;/ul&gt;&#10;&#10;.menu {font-size: 30px;color: green;}&#10;.menu .menu__item&gt;a{color: black;text-decoration: none;}&#10;.menu__item {font-weight: bold;}&#10;8) &lt;div&gt;&lt;p&gt;Lorem ipsum &lt;/p&gt;&lt;/div&gt;&#10;&lt;p&gt;bla-bla-bla&lt;/p&gt;&#10;&#10;div+p {background: green;;}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="git@github.com"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://github.com/alexmirn/html_about.git"/>
+    <hyperlink ref="B15" r:id="rId3" display="https://github.com/alexmirn/html1.git"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/html-css-js.xlsx
+++ b/html-css-js.xlsx
@@ -11,13 +11,15 @@
     <sheet name="html" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="git" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="общая инфо" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="photoshop" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="box model" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
   <si>
     <t>№п/п</t>
   </si>
@@ -330,6 +332,139 @@
 @import "imported.css"; - подключить к css-фалу еще один файл</t>
   </si>
   <si>
+    <t>обнуление стилей</t>
+  </si>
+  <si>
+    <t>1) * {
+  margin: 0;
+  padding: 0;
+}
+2) скачать из интернета normalise.css
+3) скачать из интернета reset.css</t>
+  </si>
+  <si>
+    <t>1) используется только вначале, чтобы не перебить настройки, которые могут быть сделаны позже
+2) ВАЖНО! размещать перед файлом style.css
+3) считается, что reset.css самый лучший вариант, т.к. в отличии от normalise не задает ничего по умолчанию, а просто сбрасывает настройки</t>
+  </si>
+  <si>
+    <t>псевдоэлементы</t>
+  </si>
+  <si>
+    <t>p::selection — выделение текста
+p:before — действие перед элементом
+p:after — действие после элемента
+p:first-letter — первая буква
+p:first-line — первая линия</t>
+  </si>
+  <si>
+    <t>свойства стиля применяются не ко всему элементу, а только к части элемента
+before, after - нет в DOM, применяются для зачистки страниц</t>
+  </si>
+  <si>
+    <t>псевдоклассы</t>
+  </si>
+  <si>
+    <t>a:hover — навел на элемент
+a:active — ввел в активное состояние(например зажал ссылку)
+a:visited — нажимал или нет на ссылку
+li:first-child — первый ребенок
+li:nth-child(3) — ребенок по номеру
+li:last-child — последний ребенок</t>
+  </si>
+  <si>
+    <t>работают с состоянием элемента</t>
+  </si>
+  <si>
+    <t>Float — плавающие элементы</t>
+  </si>
+  <si>
+    <t>был придуман для того, чтобы текст обтекал картинку</t>
+  </si>
+  <si>
+    <t>рабочая настройка двухпоточного контента header-sidebar-content-news-footer</t>
+  </si>
+  <si>
+    <t>.header {
+	background: grey;
+.sidebar {
+	background: green;
+	float: left;
+	width: 30%;
+}
+.content {
+	background: red;
+	float: right;
+	width: 60%;
+}
+.footer {
+	clear: both; 
+}</t>
+  </si>
+  <si>
+    <t>clear: both; - footer не залазить в свободное пространство между sidebar и content
+Clear:left - поток будет ориентироваться по левой стороне*/</t>
+  </si>
+  <si>
+    <t>горизонтальное меню без выпадаек</t>
+  </si>
+  <si>
+    <t>.menu li {
+	float: left;
+	list-style: none;
+	margin: 5px;
+	padding: 5px;
+	border: 1px solid black;
+}
+.menu {
+	background: green;
+	position: relative;
+	overflow: hidden;
+}</t>
+  </si>
+  <si>
+    <t>.menu li — выстраивает элементы слева направо вместо стандартных  сверху вниз
+position: relative; overflow: hidden; - обеспечивают заливку меню bacground-color без них не работает (происходит из-за свойства float, которое вывело эти элементы из потока и другие элементы их не видят, поскольку это list - clear: both; не будет работать.........overflow: hidden; - дает нашему родителю ощущать плавающие элементы)</t>
+  </si>
+  <si>
+    <t>.clearfix:after {
+	content: '';
+	clear: both;
+	display: block;
+}</t>
+  </si>
+  <si>
+    <t>3-й способ, чтобы плавающие элементы имели background-color ( position: relative; и overflow: hidden; - теперь не нужны) — это самое крутое решение, потому что overflow: hidden; мог обрезать цвет выпадающих элементов меню</t>
+  </si>
+  <si>
+    <t>рабочая настройка трехпоточного контента header-sidebar-content-news-footer</t>
+  </si>
+  <si>
+    <t>.header {
+	background: grey;
+}
+.sidebar {
+	background: green;
+	float: left;
+	width: 20%;
+}
+.content {
+	background: red;
+	width: 50%;
+	margin: 0 auto;
+}
+.news {
+	background: black;
+	color: white;
+	float: right;
+	width: 20%;
+}
+.footer {
+	clear: both; 
+	background: blue;
+}</t>
+  </si>
+  <si>
     <t>css- Селекторы</t>
   </si>
   <si>
@@ -343,14 +478,14 @@
 5) [type="text"] {color: blue;} или [href="http://google.com.ua"] {color: yellow;}
 6) div p {….} или #box p {}
 7) &lt;ul class="menu"&gt;
-    	&lt;li class="menu__item"&gt; 
-				&lt;a href=""&gt;пункт 1&lt;/a&gt;
-				&lt;ul&gt;
-    			&lt;li&gt;&lt;a href=""&gt;Подпункт 1&lt;/a&gt;&lt;/li&gt;
-    			&lt;li&gt;&lt;a href=""&gt;Подпункт 2&lt;/a&gt;&lt;/li&gt;
-    		&lt;/ul&gt;
-    	&lt;/li&gt;
-    	&lt;li class="menu__item"&gt;&lt;a href=""&gt;Пункт 2&lt;/a&gt;&lt;/li&gt;
+    &lt;li class="menu__item"&gt; 
+&lt;a href=""&gt;пункт 1&lt;/a&gt;
+&lt;ul&gt;
+    &lt;li&gt;&lt;a href=""&gt;Подпункт 1&lt;/a&gt;&lt;/li&gt;
+    &lt;li&gt;&lt;a href=""&gt;Подпункт 2&lt;/a&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;/li&gt;
+    &lt;li class="menu__item"&gt;&lt;a href=""&gt;Пункт 2&lt;/a&gt;&lt;/li&gt;
     &lt;/ul&gt;
 .menu {font-size: 30px;color: green;}
 .menu .menu__item&gt;a{color: black;text-decoration: none;}
@@ -389,6 +524,41 @@
 p { color: blue !important} – перебьет все веса, но это плохая практика</t>
   </si>
   <si>
+    <t>Позиционирование элементов</t>
+  </si>
+  <si>
+    <t>static
+Relative — если встречается у родителя, то относительно него позиционируются «абсолютные» дети, padding папы никак не влияет на сдвиг детей
+Absolute — абсолютное положение
+Fixed — зафиксирован относительно окна браузера и если будет скрол — все равно  останется</t>
+  </si>
+  <si>
+    <t>z-index: 1; - если блоки накладываются друг на друга, то это поможет показать какому из них быть сверху</t>
+  </si>
+  <si>
+    <t>смещение одного из элементов меню списка из общего ряда</t>
+  </si>
+  <si>
+    <t>…......&lt;li class="active"&gt;&lt;a href="#"&gt;Пункт 4&lt;/a&gt;&lt;/li&gt;..........
+.menu li{
+	float: left;
+	margin: 0 20px;
+	border: 1px solid black;
+	list-style: none;
+}
+.active{
+	position: relative;
+	top: 20px;
+	left: 20px;
+}</t>
+  </si>
+  <si>
+    <t>position: relative; - оставит его в потоке, но сместит его относительно других элементов</t>
+  </si>
+  <si>
+    <t>ul.menu&gt;(li&gt;a{Пункт $})*5</t>
+  </si>
+  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -448,64 +618,19 @@
 Присоединить без предварительного add(работает только для ранее существоваших файлов)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git@github.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:alexmirn/html1.git</t>
-    </r>
+    <t>git clone git@github.com:alexmirn/html1.git</t>
   </si>
   <si>
     <t>склонировать существующий репозиторий себе на комп</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">git pull </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/alexmirn/html_about.git</t>
-    </r>
+    <t>git pull https://github.com/alexmirn/html_about.git</t>
   </si>
   <si>
     <t>залить себе инфо с удаленной ветки</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">git remote add origin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/alexmirn/html1.git</t>
-    </r>
+    <t>git remote add origin https://github.com/alexmirn/html1.git</t>
   </si>
   <si>
     <t>подключить удаленную ветку</t>
@@ -545,6 +670,86 @@
   </si>
   <si>
     <t>означает, что используется html5</t>
+  </si>
+  <si>
+    <t>строчный элемент занимает пространство по контенту, а блочный — растягивается на сколько сможет</t>
+  </si>
+  <si>
+    <t>для строчных элементов нельзя задать высоту и ширину</t>
+  </si>
+  <si>
+    <t>3) строки выстраиваются слева направо(с небольшим отступом), блоки — сверху вниз</t>
+  </si>
+  <si>
+    <t>4) для  строчных элементов margin и padding могут работать не совсем корректно, добавляем display:block — и строчный элемент становится блочным</t>
+  </si>
+  <si>
+    <t>5) margin отступы между блоками накладываются друг на друга и по сути выбирается самый большой из отступов</t>
+  </si>
+  <si>
+    <t>6) внутрь строчного эл-та нельзя встроить блочный</t>
+  </si>
+  <si>
+    <t>зайти в units — поставить пиксели</t>
+  </si>
+  <si>
+    <t>save for web — сохранить в нужном для раоты формате</t>
+  </si>
+  <si>
+    <t>image size — растянуть размер макета. Если надо, там есть кнопка для связывания высота и ширины</t>
+  </si>
+  <si>
+    <t>canvas size — добавление рабочей области без изменения размеров макета, тогда к макету доавится рабочее пространство по краям, anchor — указать где добавить место</t>
+  </si>
+  <si>
+    <t>crop — вырезать определенную область из макета</t>
+  </si>
+  <si>
+    <t>Rulers — вертикальная и горизонтальная линейки</t>
+  </si>
+  <si>
+    <t>Layers
+Drop shadows — вкл выкл тени</t>
+  </si>
+  <si>
+    <t>кнопки</t>
+  </si>
+  <si>
+    <t>move tool(крестик) — перемещать слои по документу</t>
+  </si>
+  <si>
+    <t>rectangle(квадрат) — выделение области — текстовый слой иногда нужно привести к растровому, выбрав функцию merge layers</t>
+  </si>
+  <si>
+    <t>пипетка(ручка) — заливка текста, + в этом же месте находится ruller tool — линейка для измерения расстояния, зажимая shift создается прямой угол или угол 45 градусов</t>
+  </si>
+  <si>
+    <t>Карандаш — дает возможность рисовать(на текстовом слое это сделать не получится</t>
+  </si>
+  <si>
+    <t>Резинка — стереть часть слоя, для начала его надо выбрать + надо проверить drop shadow и растрировать его?</t>
+  </si>
+  <si>
+    <t>Лейка — заливка слоя</t>
+  </si>
+  <si>
+    <t>Т — буква — работа с текстом, нажать на Т — приблизить и нажать на пиксель — узнаешь цвет текста.....также есть эффекты размыть, smooze?, сгладить, sharp, crisp Надо будет поискать, но не все они обрабатываемы браузером</t>
+  </si>
+  <si>
+    <t>rectangle tool — инструмент, позволяющий нарисовать прямоугольник</t>
+  </si>
+  <si>
+    <t>вырезание лого — найти все слои, относящиеся к нему (группа или уже есть или ее надо походу создать)  и нажать merge group — показатель этого — при выборе этого нового слоя выделяется вся область.
+2. правой кнопкой наводим на слой — нажимаем duplicate layer — и вывести его в другом документе
+3. image — crop — это мы его обрезали</t>
+  </si>
+  <si>
+    <t>ВАЖНО — объединить слои, чтобы не потерять тени</t>
+  </si>
+  <si>
+    <t>png используется для небольших картинок и для тех картинок, где есть полупрозрачность
+Jpeg — для неполупрозрачных и больших картинок
+Transparency — прозрачность</t>
   </si>
 </sst>
 </file>
@@ -554,7 +759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -589,6 +794,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -654,7 +865,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -691,8 +902,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -712,10 +927,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1071,135 +1286,175 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
+    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
       <c r="B27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
+    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="D28" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1207,7 +1462,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1215,7 +1470,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1223,15 +1478,17 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1239,7 +1496,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1247,7 +1504,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1255,7 +1512,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1263,7 +1520,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1271,7 +1528,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1279,7 +1536,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1287,7 +1544,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1295,23 +1552,87 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
     </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="&lt;a href=&quot;http://google.com.ua&quot; target=&quot;_blank&quot;&gt;Google&lt;/a&gt;"/>
-    <hyperlink ref="C27" r:id="rId2" display="1) ul{color: red;}&#10;2) &lt;ul class=&quot;menu active&quot;&gt;........&lt;/ul&gt;&#10;.menu{color: red;}&#10;.active{background: black;}&#10;3) &lt;ul id=&quot;unique&quot;&gt;…............&lt;/ul&gt;&#10;#unique{color: red;}&#10;4) *{............}&#10;5) [type=&quot;text&quot;] {color: blue;} или [href=&quot;http://google.com.ua&quot;] {color: yellow;}&#10;6) div p {….} или #box p {}&#10;7) &lt;ul class=&quot;menu&quot;&gt;&#10;     &lt;li class=&quot;menu__item&quot;&gt; &#10;    &lt;a href=&quot;&quot;&gt;пункт 1&lt;/a&gt;&#10;    &lt;ul&gt;&#10;       &lt;li&gt;&lt;a href=&quot;&quot;&gt;Подпункт 1&lt;/a&gt;&lt;/li&gt;&#10;       &lt;li&gt;&lt;a href=&quot;&quot;&gt;Подпункт 2&lt;/a&gt;&lt;/li&gt;&#10;      &lt;/ul&gt;&#10;     &lt;/li&gt;&#10;     &lt;li class=&quot;menu__item&quot;&gt;&lt;a href=&quot;&quot;&gt;Пункт 2&lt;/a&gt;&lt;/li&gt;&#10;    &lt;/ul&gt;&#10;&#10;.menu {font-size: 30px;color: green;}&#10;.menu .menu__item&gt;a{color: black;text-decoration: none;}&#10;.menu__item {font-weight: bold;}&#10;8) &lt;div&gt;&lt;p&gt;Lorem ipsum &lt;/p&gt;&lt;/div&gt;&#10;&lt;p&gt;bla-bla-bla&lt;/p&gt;&#10;&#10;div+p {background: green;;}"/>
+    <hyperlink ref="C35" r:id="rId2" display="http://google.com.ua"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1324,7 +1645,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1338,10 +1659,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -1356,10 +1677,10 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1371,10 +1692,10 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1386,10 +1707,10 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1401,10 +1722,10 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1416,7 +1737,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1429,7 +1750,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1442,10 +1763,10 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1457,7 +1778,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1470,10 +1791,10 @@
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1485,10 +1806,10 @@
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1510,11 +1831,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>95</v>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1525,11 +1846,11 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
+      <c r="B14" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1540,11 +1861,11 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>99</v>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1556,10 +1877,10 @@
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1582,10 +1903,10 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1597,10 +1918,10 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1612,10 +1933,10 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1638,10 +1959,10 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1938,16 +2259,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="git@github.com"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://github.com/alexmirn/html_about.git"/>
-    <hyperlink ref="B15" r:id="rId3" display="https://github.com/alexmirn/html1.git"/>
+    <hyperlink ref="B13" r:id="rId1" display="git clone git@github.com:alexmirn/html1.git"/>
+    <hyperlink ref="B14" r:id="rId2" display="git pull https://github.com/alexmirn/html_about.git"/>
+    <hyperlink ref="B15" r:id="rId3" display="git remote add origin https://github.com/alexmirn/html1.git"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1957,10 +2278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1972,10 +2293,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1983,8 +2334,409 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/html-css-js.xlsx
+++ b/html-css-js.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
     <t>№п/п</t>
   </si>
@@ -475,7 +475,7 @@
 3) &lt;ul id="unique"&gt;…............&lt;/ul&gt;
 #unique{color: red;}
 4) *{............}
-5) [type="text"] {color: blue;} или [href="http://google.com.ua"] {color: yellow;}
+5) [type="text"] {color: blue;} или [href="#"] {color: yellow;}
 6) div p {….} или #box p {}
 7) &lt;ul class="menu"&gt;
     &lt;li class="menu__item"&gt; 
@@ -510,27 +510,22 @@
     <t>единицы измерения css</t>
   </si>
   <si>
-    <t>width: 748px;
-Width: 50%;</t>
+    <t>2) &lt;ul class="menu active"&gt;........&lt;/ul&gt;</t>
   </si>
   <si>
     <t>вес селекторов</t>
   </si>
   <si>
-    <t>селектор тега: 0 0 0 1
-Селектор класса и селектор аттрибута [type=”text”]: 0 0 1 0
-Селектор id: 0 1 0 0
-Непосредственно в элементе &lt;p ...style=”color: green;”..&gt;: 1 0 0 0
-p { color: blue !important} – перебьет все веса, но это плохая практика</t>
+    <t>.menu{color: red;}</t>
+  </si>
+  <si>
+    <t>.active{background: black;}</t>
   </si>
   <si>
     <t>Позиционирование элементов</t>
   </si>
   <si>
-    <t>static
-Relative — если встречается у родителя, то относительно него позиционируются «абсолютные» дети, padding папы никак не влияет на сдвиг детей
-Absolute — абсолютное положение
-Fixed — зафиксирован относительно окна браузера и если будет скрол — все равно  останется</t>
+    <t>3) &lt;ul id="unique"&gt;…............&lt;/ul&gt;</t>
   </si>
   <si>
     <t>z-index: 1; - если блоки накладываются друг на друга, то это поможет показать какому из них быть сверху</t>
@@ -539,24 +534,86 @@
     <t>смещение одного из элементов меню списка из общего ряда</t>
   </si>
   <si>
-    <t>…......&lt;li class="active"&gt;&lt;a href="#"&gt;Пункт 4&lt;/a&gt;&lt;/li&gt;..........
-.menu li{
-	float: left;
-	margin: 0 20px;
-	border: 1px solid black;
-	list-style: none;
-}
-.active{
-	position: relative;
-	top: 20px;
-	left: 20px;
-}</t>
+    <t>#unique{color: red;}</t>
   </si>
   <si>
     <t>position: relative; - оставит его в потоке, но сместит его относительно других элементов</t>
   </si>
   <si>
+    <t>4) *{............}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5) [type="text"] {color: blue;} или [href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http://google.com.ua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"] {color: yellow;}</t>
+    </r>
+  </si>
+  <si>
+    <t>6) div p {….} или #box p {}</t>
+  </si>
+  <si>
     <t>ul.menu&gt;(li&gt;a{Пункт $})*5</t>
+  </si>
+  <si>
+    <t>7) &lt;ul class="menu"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;li class="menu__item"&gt; </t>
+  </si>
+  <si>
+    <t>&lt;a href=""&gt;пункт 1&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;li&gt;&lt;a href=""&gt;Подпункт 1&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;li&gt;&lt;a href=""&gt;Подпункт 2&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;li class="menu__item"&gt;&lt;a href=""&gt;Пункт 2&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>.menu {font-size: 30px;color: green;}</t>
+  </si>
+  <si>
+    <t>.menu .menu__item&gt;a{color: black;text-decoration: none;}</t>
+  </si>
+  <si>
+    <t>.menu__item {font-weight: bold;}</t>
+  </si>
+  <si>
+    <t>8) &lt;div&gt;&lt;p&gt;Lorem ipsum &lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;bla-bla-bla&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>div+p {background: green;;}</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -759,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -794,6 +851,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -929,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1392,26 +1454,26 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="8"/>
@@ -1421,35 +1483,37 @@
         <v>28</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C39" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="D39" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="C40" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1521,9 @@
         <v>31</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="D41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1531,9 @@
         <v>32</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="D42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1541,9 @@
         <v>33</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="D43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,9 +1551,11 @@
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1563,9 @@
         <v>35</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1573,9 @@
         <v>36</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="D46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1583,9 @@
         <v>37</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1593,9 @@
         <v>38</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1603,9 @@
         <v>39</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="D49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1613,9 @@
         <v>40</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1623,9 @@
         <v>41</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1633,9 @@
         <v>42</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1643,9 @@
         <v>43</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="D53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1661,9 @@
         <v>45</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1671,9 @@
         <v>46</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="D56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,7 +1681,9 @@
         <v>47</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1691,9 @@
         <v>48</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1701,9 @@
         <v>49</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="D59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,13 +1719,15 @@
         <v>51</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="D61" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="&lt;a href=&quot;http://google.com.ua&quot; target=&quot;_blank&quot;&gt;Google&lt;/a&gt;"/>
-    <hyperlink ref="C35" r:id="rId2" display="http://google.com.ua"/>
+    <hyperlink ref="C42" r:id="rId2" display="http://google.com.ua"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1659,10 +1761,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -1677,10 +1779,10 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1692,10 +1794,10 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1707,10 +1809,10 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1722,10 +1824,10 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1737,7 +1839,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1750,7 +1852,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1763,10 +1865,10 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1778,7 +1880,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1791,10 +1893,10 @@
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1806,10 +1908,10 @@
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1832,10 +1934,10 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1847,10 +1949,10 @@
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1862,10 +1964,10 @@
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1877,10 +1979,10 @@
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1903,10 +2005,10 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1918,10 +2020,10 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1933,10 +2035,10 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1959,10 +2061,10 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2293,40 +2395,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2463,7 @@
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -2374,7 +2476,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2387,7 +2489,7 @@
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2400,7 +2502,7 @@
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2413,7 +2515,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2426,7 +2528,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2439,7 +2541,7 @@
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2463,7 +2565,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2476,7 +2578,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2489,7 +2591,7 @@
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2502,7 +2604,7 @@
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2515,7 +2617,7 @@
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2528,7 +2630,7 @@
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2541,7 +2643,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2554,7 +2656,7 @@
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2567,7 +2669,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2591,7 +2693,7 @@
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2604,7 +2706,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2628,7 +2730,7 @@
     <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
